--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF0F40-8358-1744-A837-7F7ACC042420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120ABF7-090A-4843-A3DA-34A7378A6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,11 +2273,11 @@
     <v>Powered by Refinitiv</v>
     <v>76.75</v>
     <v>39</v>
-    <v>1.7881</v>
-    <v>-0.03</v>
-    <v>-4.8220000000000001E-4</v>
-    <v>0.11</v>
-    <v>1.769E-3</v>
+    <v>1.7430000000000001</v>
+    <v>-0.7</v>
+    <v>-1.0366999999999999E-2</v>
+    <v>-0.21</v>
+    <v>-3.1430000000000004E-3</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -2285,25 +2285,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>62.84</v>
+    <v>67.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.995722638283</v>
+    <v>45065.947644247659</v>
     <v>0</v>
-    <v>61.74</v>
-    <v>30353460000</v>
+    <v>66.31</v>
+    <v>32664923589</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>62.21</v>
-    <v>661.63329999999996</v>
-    <v>62.22</v>
-    <v>62.19</v>
-    <v>62.3</v>
-    <v>488076200</v>
+    <v>67.59</v>
+    <v>468.75869999999998</v>
+    <v>67.52</v>
+    <v>66.819999999999993</v>
+    <v>66.61</v>
+    <v>488849500</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>2106307</v>
-    <v>2822930</v>
+    <v>2234745</v>
+    <v>4348103</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2468,9 +2468,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2891,10 +2891,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
+      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3653,15 +3653,15 @@
       </c>
       <c r="Q16" s="31">
         <f>R101/J3</f>
-        <v>19.237898459559069</v>
+        <v>20.70289460227723</v>
       </c>
       <c r="R16" s="31">
         <f>R101/J28</f>
-        <v>568.5765664512503</v>
+        <v>611.87456381005904</v>
       </c>
       <c r="S16" s="32">
         <f>R101/J106</f>
-        <v>66.44090279282652</v>
+        <v>71.500481754365225</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="R95" s="58" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.7881</v>
+        <v>1.7430000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="R97" s="37">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.11792770500000001</v>
+        <v>0.11598615000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="R100" s="35">
         <f>R99/R103</f>
-        <v>8.5239905107453127E-3</v>
+        <v>7.925589090764712E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="R101" s="51" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30353460000</v>
+        <v>32664923589</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R102" s="35">
         <f>R101/R103</f>
-        <v>0.99147600948925474</v>
+        <v>0.99207441090923532</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>30614417000</v>
+        <v>32925880589</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>0.11709711542138825</v>
+        <v>0.11522925746131828</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6798,7 +6798,7 @@
       <c r="N107" s="41"/>
       <c r="O107" s="44">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>14198586367.136215</v>
+        <v>14492514781.419865</v>
       </c>
       <c r="P107" s="45" t="s">
         <v>147</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="O108" s="44">
         <f>O107+O106</f>
-        <v>15474341340.282257</v>
+        <v>15768269754.565907</v>
       </c>
       <c r="P108" s="45" t="s">
         <v>143</v>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="R108" s="49">
         <f>R105</f>
-        <v>0.11709711542138825</v>
+        <v>0.11522925746131828</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L110" s="51">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>11223496919.385857</v>
+        <v>11478846224.506422</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="L113" s="51">
         <f>L110+L111-L112</f>
-        <v>12409125919.385857</v>
+        <v>12664475224.506422</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L115" s="60">
         <f>L113/L114</f>
-        <v>21.993291887863297</v>
+        <v>22.445859767129171</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="L116" s="59" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>62.19</v>
+        <v>66.819999999999993</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="L117" s="55">
         <f>L115/L116-1</f>
-        <v>-0.64635324187388177</v>
+        <v>-0.66408470866313718</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120ABF7-090A-4843-A3DA-34A7378A6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3BA03-3ECC-884B-A412-B30DC021222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,11 +2273,11 @@
     <v>Powered by Refinitiv</v>
     <v>76.75</v>
     <v>39</v>
-    <v>1.7430000000000001</v>
-    <v>-0.7</v>
-    <v>-1.0366999999999999E-2</v>
-    <v>-0.21</v>
-    <v>-3.1430000000000004E-3</v>
+    <v>1.7428999999999999</v>
+    <v>1.41</v>
+    <v>2.128E-2</v>
+    <v>0.15</v>
+    <v>2.2170000000000002E-3</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -2285,25 +2285,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>67.7</v>
+    <v>68.260000000000005</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.947644247659</v>
+    <v>45072.999398321095</v>
     <v>0</v>
-    <v>66.31</v>
-    <v>32664923589</v>
+    <v>66.34</v>
+    <v>33080450000</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>67.59</v>
-    <v>468.75869999999998</v>
-    <v>67.52</v>
-    <v>66.819999999999993</v>
-    <v>66.61</v>
+    <v>66.5</v>
+    <v>460.0111</v>
+    <v>66.260000000000005</v>
+    <v>67.67</v>
+    <v>67.819999999999993</v>
     <v>488849500</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>2234745</v>
-    <v>4348103</v>
+    <v>2337722</v>
+    <v>4434316</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2468,9 +2468,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2891,10 +2891,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3030,19 +3030,19 @@
         <v>1577795000</v>
       </c>
       <c r="K3" s="29">
-        <v>1896000000</v>
+        <v>1924000000</v>
       </c>
       <c r="L3" s="29">
-        <v>2365000000</v>
+        <v>2373000000</v>
       </c>
       <c r="M3" s="29">
-        <v>3000000000</v>
+        <v>2976000000</v>
       </c>
       <c r="N3" s="29">
-        <v>3662000000</v>
+        <v>3717000000</v>
       </c>
       <c r="O3" s="29">
-        <v>4401000000</v>
+        <v>4451000000</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>109</v>
@@ -3096,23 +3096,23 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20167702394797793</v>
+        <v>0.21942330911176677</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2473628691983123</v>
+        <v>0.23336798336798337</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2684989429175475</v>
+        <v>0.25410872313527189</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22066666666666657</v>
+        <v>0.248991935483871</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20180229382850912</v>
+        <v>0.19747107882701109</v>
       </c>
       <c r="P4" s="17">
         <f>(J4+I4+H4)/3</f>
@@ -3653,15 +3653,15 @@
       </c>
       <c r="Q16" s="31">
         <f>R101/J3</f>
-        <v>20.70289460227723</v>
+        <v>20.966253537373358</v>
       </c>
       <c r="R16" s="31">
         <f>R101/J28</f>
-        <v>611.87456381005904</v>
+        <v>619.65814367331643</v>
       </c>
       <c r="S16" s="32">
         <f>R101/J106</f>
-        <v>71.500481754365225</v>
+        <v>72.410030447697167</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="R95" s="58" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.7430000000000001</v>
+        <v>1.7428999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="R97" s="37">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.11598615000000001</v>
+        <v>0.115981845</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="R100" s="35">
         <f>R99/R103</f>
-        <v>7.925589090764712E-3</v>
+        <v>7.8268142673163128E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="R101" s="51" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32664923589</v>
+        <v>33080450000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R102" s="35">
         <f>R101/R103</f>
-        <v>0.99207441090923532</v>
+        <v>0.99217318573268365</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>32925880589</v>
+        <v>33341407000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>0.11522925746131828</v>
+        <v>0.11523441913619481</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6752,23 +6752,23 @@
       </c>
       <c r="K106" s="40">
         <f>J106*(1+$R$106)</f>
-        <v>561011284.37003779</v>
+        <v>562231549.37172389</v>
       </c>
       <c r="L106" s="40">
         <f t="shared" ref="L106:O106" si="9">K106*(1+$R$106)</f>
-        <v>688922731.99792361</v>
+        <v>691922966.03238535</v>
       </c>
       <c r="M106" s="40">
         <f t="shared" si="9"/>
-        <v>845998189.1387974</v>
+        <v>851530639.74807143</v>
       </c>
       <c r="N106" s="40">
         <f t="shared" si="9"/>
-        <v>1038887095.4374046</v>
+        <v>1047955431.4949874</v>
       </c>
       <c r="O106" s="40">
         <f t="shared" si="9"/>
-        <v>1275754973.1460426</v>
+        <v>1289690041.8342609</v>
       </c>
       <c r="P106" s="41" t="s">
         <v>145</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="R106" s="43">
         <f>(SUM(K4:O4)/5)</f>
-        <v>0.22800155931180269</v>
+        <v>0.23067260598518083</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6798,7 +6798,7 @@
       <c r="N107" s="41"/>
       <c r="O107" s="44">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>14492514781.419865</v>
+        <v>14649978417.712938</v>
       </c>
       <c r="P107" s="45" t="s">
         <v>147</v>
@@ -6813,23 +6813,23 @@
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="K108" s="44">
         <f t="shared" ref="K108:M108" si="10">K107+K106</f>
-        <v>561011284.37003779</v>
+        <v>562231549.37172389</v>
       </c>
       <c r="L108" s="44">
         <f t="shared" si="10"/>
-        <v>688922731.99792361</v>
+        <v>691922966.03238535</v>
       </c>
       <c r="M108" s="44">
         <f t="shared" si="10"/>
-        <v>845998189.1387974</v>
+        <v>851530639.74807143</v>
       </c>
       <c r="N108" s="44">
         <f>N107+N106</f>
-        <v>1038887095.4374046</v>
+        <v>1047955431.4949874</v>
       </c>
       <c r="O108" s="44">
         <f>O107+O106</f>
-        <v>15768269754.565907</v>
+        <v>15939668459.547199</v>
       </c>
       <c r="P108" s="45" t="s">
         <v>143</v>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="R108" s="49">
         <f>R105</f>
-        <v>0.11522925746131828</v>
+        <v>0.11523441913619481</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L110" s="51">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>11478846224.506422</v>
+        <v>11591315617.189266</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="L113" s="51">
         <f>L110+L111-L112</f>
-        <v>12664475224.506422</v>
+        <v>12776944617.189266</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L115" s="60">
         <f>L113/L114</f>
-        <v>22.445859767129171</v>
+        <v>22.645194691909026</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="L116" s="59" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>66.819999999999993</v>
+        <v>67.67</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="L117" s="55">
         <f>L115/L116-1</f>
-        <v>-0.66408470866313718</v>
+        <v>-0.66535843517202564</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3BA03-3ECC-884B-A412-B30DC021222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E5E1B-90B5-C44F-9240-5B15F45621CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2271,13 +2271,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>76.75</v>
+    <v>78.599999999999994</v>
     <v>39</v>
-    <v>1.7428999999999999</v>
-    <v>1.41</v>
-    <v>2.128E-2</v>
-    <v>0.15</v>
-    <v>2.2170000000000002E-3</v>
+    <v>1.7363</v>
+    <v>0.34</v>
+    <v>4.4469999999999996E-3</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -2285,25 +2283,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>68.260000000000005</v>
+    <v>77.525000000000006</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999398321095</v>
+    <v>45099.994996932815</v>
     <v>0</v>
-    <v>66.34</v>
-    <v>33080450000</v>
+    <v>75.42</v>
+    <v>37543641600</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>66.5</v>
-    <v>460.0111</v>
-    <v>66.260000000000005</v>
-    <v>67.67</v>
-    <v>67.819999999999993</v>
+    <v>75.88</v>
+    <v>533.18520000000001</v>
+    <v>76.459999999999994</v>
+    <v>76.8</v>
     <v>488849500</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>2337722</v>
-    <v>4434316</v>
+    <v>801</v>
+    <v>3356859</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2335,8 +2332,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2357,7 +2352,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2374,7 +2368,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2385,16 +2379,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2460,19 +2451,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2517,9 +2502,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2527,9 +2509,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2891,10 +2870,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3653,15 +3632,15 @@
       </c>
       <c r="Q16" s="31">
         <f>R101/J3</f>
-        <v>20.966253537373358</v>
+        <v>23.795006068595729</v>
       </c>
       <c r="R16" s="31">
         <f>R101/J28</f>
-        <v>619.65814367331643</v>
+        <v>703.2619949423995</v>
       </c>
       <c r="S16" s="32">
         <f>R101/J106</f>
-        <v>72.410030447697167</v>
+        <v>82.17954203686557</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6321,7 +6300,7 @@
       </c>
       <c r="R95" s="58" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.7428999999999999</v>
+        <v>1.7363</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6398,7 +6377,7 @@
       </c>
       <c r="R97" s="37">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.115981845</v>
+        <v>0.11569771500000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6512,7 +6491,7 @@
       </c>
       <c r="R100" s="35">
         <f>R99/R103</f>
-        <v>7.8268142673163128E-3</v>
+        <v>6.9027845728799773E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6551,7 +6530,7 @@
       </c>
       <c r="R101" s="51" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>33080450000</v>
+        <v>37543641600</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6590,7 +6569,7 @@
       </c>
       <c r="R102" s="35">
         <f>R101/R103</f>
-        <v>0.99217318573268365</v>
+        <v>0.99309721542712004</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6629,7 +6608,7 @@
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>33341407000</v>
+        <v>37804598600</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6716,7 +6695,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>0.11523441913619481</v>
+        <v>0.11504049114006873</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6798,7 +6777,7 @@
       <c r="N107" s="41"/>
       <c r="O107" s="44">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>14649978417.712938</v>
+        <v>14681531343.756155</v>
       </c>
       <c r="P107" s="45" t="s">
         <v>147</v>
@@ -6829,7 +6808,7 @@
       </c>
       <c r="O108" s="44">
         <f>O107+O106</f>
-        <v>15939668459.547199</v>
+        <v>15971221385.590416</v>
       </c>
       <c r="P108" s="45" t="s">
         <v>143</v>
@@ -6839,7 +6818,7 @@
       </c>
       <c r="R108" s="49">
         <f>R105</f>
-        <v>0.11523441913619481</v>
+        <v>0.11504049114006873</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6854,7 +6833,7 @@
       </c>
       <c r="L110" s="51">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>11591315617.189266</v>
+        <v>11618731779.93836</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6881,7 +6860,7 @@
       </c>
       <c r="L113" s="51">
         <f>L110+L111-L112</f>
-        <v>12776944617.189266</v>
+        <v>12804360779.93836</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6899,7 +6878,7 @@
       </c>
       <c r="L115" s="60">
         <f>L113/L114</f>
-        <v>22.645194691909026</v>
+        <v>22.693785678389709</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6908,7 +6887,7 @@
       </c>
       <c r="L116" s="59" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>67.67</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -6917,7 +6896,7 @@
       </c>
       <c r="L117" s="55">
         <f>L115/L116-1</f>
-        <v>-0.66535843517202564</v>
+        <v>-0.70450799897930061</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E5E1B-90B5-C44F-9240-5B15F45621CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73FE3D-AF20-5D47-944A-0B2FFE4063AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Share Dilution (5yr)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -836,22 +862,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -859,47 +876,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -944,20 +926,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,78 +940,92 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,7 +1077,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TTD</a:t>
+              <a:t>The Trade Desk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1320,11 +1308,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,7 +1352,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$J$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2151,6 +2139,68 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7679999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2271,11 +2321,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>78.599999999999994</v>
+    <v>79.38</v>
     <v>39</v>
-    <v>1.7363</v>
-    <v>0.34</v>
-    <v>4.4469999999999996E-3</v>
+    <v>1.7415</v>
+    <v>-0.88</v>
+    <v>-1.1246000000000001E-2</v>
+    <v>-0.11</v>
+    <v>-1.4219999999999999E-3</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -2283,24 +2335,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>77.525000000000006</v>
+    <v>79.355000000000004</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.994996932815</v>
+    <v>45106.902441608596</v>
     <v>0</v>
-    <v>75.42</v>
-    <v>37543641600</v>
+    <v>77.03</v>
+    <v>37822285815</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>75.88</v>
-    <v>533.18520000000001</v>
-    <v>76.459999999999994</v>
-    <v>76.8</v>
+    <v>78.290000000000006</v>
+    <v>543.25189999999998</v>
+    <v>78.25</v>
+    <v>77.37</v>
+    <v>77.260000000000005</v>
     <v>488849500</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>801</v>
-    <v>3356859</v>
+    <v>3808821</v>
+    <v>3267960</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2332,6 +2385,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2352,6 +2407,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2368,7 +2424,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2379,13 +2435,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2451,13 +2510,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2502,6 +2567,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2509,6 +2577,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2870,10 +2941,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2914,19 +2985,19 @@
       <c r="J1" s="8">
         <v>2022</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2023</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2024</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2025</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>2026</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2935,40 +3006,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -3008,37 +3079,37 @@
       <c r="J3" s="1">
         <v>1577795000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="25">
         <v>1924000000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="25">
         <v>2373000000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="25">
         <v>2976000000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="25">
         <v>3717000000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="25">
         <v>4451000000</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3106,7 +3177,7 @@
         <v>6.4374947262163681E-2</v>
       </c>
       <c r="S4" s="17">
-        <f>(J105+I105+H105)/3</f>
+        <f>(J106+I106+H106)/3</f>
         <v>5.3309821151966501</v>
       </c>
       <c r="V4" s="16"/>
@@ -3189,16 +3260,16 @@
         <v>1296672000</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3245,7 +3316,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="S7" s="21">
-        <f>J106/J3</f>
+        <f>J107/J3</f>
         <v>0.28954902252827525</v>
       </c>
     </row>
@@ -3283,7 +3354,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3324,16 +3395,16 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="P9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3448,21 +3519,21 @@
         <v>863142000</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3524,28 +3595,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1">
         <v>281123000</v>
@@ -3583,16 +3654,16 @@
         <v>1464141000</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3626,24 +3697,24 @@
       <c r="J16" s="1">
         <v>1745264000</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="26">
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.5723145599132812E-2</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="27">
         <f>R101/J3</f>
-        <v>23.795006068595729</v>
-      </c>
-      <c r="R16" s="31">
+        <v>23.971609629261089</v>
+      </c>
+      <c r="R16" s="27">
         <f>R101/J28</f>
-        <v>703.2619949423995</v>
-      </c>
-      <c r="S16" s="32">
-        <f>R101/J106</f>
-        <v>82.17954203686557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>708.4815175611127</v>
+      </c>
+      <c r="S16" s="28">
+        <f>R101/J107</f>
+        <v>82.78946832542043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3663,19 +3734,19 @@
         <v>1550000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>12755000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3707,10 +3778,19 @@
         <v>54425000</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3741,14 +3821,41 @@
       <c r="J19" s="10">
         <v>194550000</v>
       </c>
-      <c r="P19" s="33">
+      <c r="K19" s="41">
+        <v>741000000</v>
+      </c>
+      <c r="L19" s="41">
+        <v>950000000</v>
+      </c>
+      <c r="M19" s="41">
+        <v>1270000000</v>
+      </c>
+      <c r="N19" s="41">
+        <v>1575000000</v>
+      </c>
+      <c r="O19" s="41">
+        <v>1936000000</v>
+      </c>
+      <c r="P19" s="29">
         <f>J40-J56-J61</f>
         <v>1185629000</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="33">
+        <f>R101/K3</f>
+        <v>19.65815271049896</v>
+      </c>
+      <c r="R19" s="34">
+        <f>R101/K28</f>
+        <v>61.023371757018396</v>
+      </c>
+      <c r="S19" s="35">
+        <f>R101/K106</f>
+        <v>68.518633722826081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3783,9 +3890,28 @@
         <f t="shared" si="3"/>
         <v>0.18443882986819271</v>
       </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="4">(K19/J19)-1</f>
+        <v>2.8087895142636854</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="5">(L19/K19)-1</f>
+        <v>0.28205128205128216</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="6">(M19/L19)-1</f>
+        <v>0.33684210526315783</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="7">(N19/M19)-1</f>
+        <v>0.24015748031496065</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" ref="O20" si="8">(O19/N19)-1</f>
+        <v>0.22920634920634919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3816,8 +3942,34 @@
       <c r="J21" s="2">
         <v>0.12330000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K21" s="42">
+        <f>K19/K3</f>
+        <v>0.38513513513513514</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" ref="L21:O21" si="9">L19/L3</f>
+        <v>0.40033712600084281</v>
+      </c>
+      <c r="M21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.426747311827957</v>
+      </c>
+      <c r="N21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="O21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.43495843630644798</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3848,8 +4000,16 @@
       <c r="J22" s="10">
         <v>113654000</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="R22" s="36">
+        <f>(-1*J98)/R101</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="37">
+        <f>J107/R101</f>
+        <v>1.2078831042486003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3881,7 +4041,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3913,7 +4073,7 @@
         <v>13716000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3945,7 +4105,7 @@
         <v>127370000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3977,7 +4137,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4009,7 +4169,7 @@
         <v>73985000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4040,10 +4200,25 @@
       <c r="J28" s="11">
         <v>53385000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="38">
+        <v>619800000</v>
+      </c>
+      <c r="L28" s="38">
+        <v>750600000</v>
+      </c>
+      <c r="M28" s="38">
+        <v>980300000</v>
+      </c>
+      <c r="N28" s="38">
+        <v>1470000000</v>
+      </c>
+      <c r="O28" s="38">
+        <v>1876000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4059,27 +4234,47 @@
         <v>1.4801288936627284</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:J29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:J29" si="10">(F28/E28)-1</f>
         <v>0.73510768140477967</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22893124574540513</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.2370889418194575</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.4314802510760698</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.61248384895689667</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="11">(K28/J28)-1</f>
+        <v>10.610002809778027</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="12">(L28/K28)-1</f>
+        <v>0.21103581800580828</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="13">(M28/L28)-1</f>
+        <v>0.30602184918731679</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="14">(N28/M28)-1</f>
+        <v>0.49954095684994382</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29" si="15">(O28/N28)-1</f>
+        <v>0.2761904761904761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4110,13 +4305,33 @@
       <c r="J30" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K30" s="39">
+        <f>K28/K3</f>
+        <v>0.32214137214137212</v>
+      </c>
+      <c r="L30" s="39">
+        <f t="shared" ref="L30:O30" si="16">L28/L3</f>
+        <v>0.31630847029077119</v>
+      </c>
+      <c r="M30" s="39">
+        <f t="shared" si="16"/>
+        <v>0.32940188172043011</v>
+      </c>
+      <c r="N30" s="39">
+        <f t="shared" si="16"/>
+        <v>0.39548022598870058</v>
+      </c>
+      <c r="O30" s="39">
+        <f t="shared" si="16"/>
+        <v>0.42147831947876879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12">
         <v>0.05</v>
@@ -4142,13 +4357,28 @@
       <c r="J31" s="12">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K31" s="40">
+        <v>1.27</v>
+      </c>
+      <c r="L31" s="40">
+        <v>1.54</v>
+      </c>
+      <c r="M31" s="40">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N31" s="40">
+        <v>3.01</v>
+      </c>
+      <c r="O31" s="40">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>0.04</v>
@@ -4241,7 +4471,7 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4249,31 +4479,31 @@
         <v>-0.26401831619537275</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:J35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:J35" si="17">(D34-C34)/C34</f>
         <v>-0.50117338863723193</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4100656455142231</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.9427092790993282E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.3958683641604615E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.4724929925114002E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0505021637952151E-2</v>
       </c>
     </row>
@@ -4282,31 +4512,31 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -4314,31 +4544,31 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4378,19 +4608,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1">
         <v>124112000</v>
@@ -4474,31 +4704,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4602,31 +4832,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4658,7 +4888,7 @@
         <v>14334000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4690,7 +4920,7 @@
         <v>14334000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4698,31 +4928,31 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4826,31 +5056,31 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4922,19 +5152,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>14577000</v>
@@ -4954,31 +5184,31 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4986,31 +5216,31 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5094,10 +5324,10 @@
         <v>27000000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>254562000</v>
@@ -5114,31 +5344,31 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5146,31 +5376,31 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5242,31 +5472,31 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5306,31 +5536,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5391,10 +5621,10 @@
         <v>-42480000</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5498,31 +5728,31 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5530,31 +5760,31 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5687,42 +5917,42 @@
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:J80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:J80" si="18">B79/B3</f>
         <v>2.4019035646942622E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.285428159808848E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.4915486433478212E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.9162310969219737E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.8436058278545296E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.12216477222876056</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.13369687560180041</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.28200777789943227</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.31603725452292597</v>
       </c>
       <c r="K80" s="15"/>
@@ -5796,36 +6026,36 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q83" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="R83" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="Q83" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="R83" s="47"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5858,10 +6088,10 @@
       <c r="J84" s="1">
         <v>187119000</v>
       </c>
-      <c r="Q84" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="R84" s="66"/>
+      <c r="Q84" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="R84" s="48"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5889,15 +6119,15 @@
         <v>835634000</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q85" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="R85" s="25">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="R85" s="50">
         <f>J17</f>
         <v>12755000</v>
       </c>
@@ -5931,12 +6161,12 @@
         <v>47574000</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="R86" s="25">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="R86" s="50">
         <f>J56</f>
         <v>52430000</v>
       </c>
@@ -5972,10 +6202,10 @@
       <c r="J87" s="10">
         <v>548734000</v>
       </c>
-      <c r="Q87" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="R87" s="25">
+      <c r="Q87" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="R87" s="50">
         <f>J61</f>
         <v>208527000</v>
       </c>
@@ -6011,52 +6241,52 @@
       <c r="J88" s="1">
         <v>-84160000</v>
       </c>
-      <c r="Q88" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="R88" s="35">
+      <c r="Q88" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="R88" s="52">
         <f>R85/(R86+R87)</f>
         <v>4.8877784462574292E-2</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:J89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:J89" si="19">(-1*B88)/B3</f>
         <v>1.8676483792762863E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.5047260971924526E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.544020973162631E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.2385721747989241E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.2778790431055073E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.1422749592320192E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.8586216094340767E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.5804857133544007E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.3340262835159191E-2</v>
       </c>
       <c r="K89" s="15"/>
@@ -6065,10 +6295,10 @@
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
-      <c r="Q89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R89" s="25">
+      <c r="Q89" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="R89" s="50">
         <f>J27</f>
         <v>73985000</v>
       </c>
@@ -6078,36 +6308,36 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-3000000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-13261000</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q90" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="25">
+      <c r="R90" s="50">
         <f>J25</f>
         <v>127370000</v>
       </c>
@@ -6120,16 +6350,16 @@
         <v>-551000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-212776000</v>
@@ -6143,10 +6373,10 @@
       <c r="J91" s="1">
         <v>-553295000</v>
       </c>
-      <c r="Q91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="R91" s="35">
+      <c r="Q91" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="R91" s="52">
         <f>R89/R90</f>
         <v>0.58086676611446963</v>
       </c>
@@ -6156,19 +6386,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>551000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>89539000</v>
@@ -6182,10 +6412,10 @@
       <c r="J92" s="1">
         <v>340806000</v>
       </c>
-      <c r="Q92" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="R92" s="37">
+      <c r="Q92" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="R92" s="52">
         <f>R88*(1-R91)</f>
         <v>2.0486303866958693E-2</v>
       </c>
@@ -6201,16 +6431,16 @@
         <v>-1799000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-6053000</v>
@@ -6221,10 +6451,10 @@
       <c r="J93" s="1">
         <v>-7725000</v>
       </c>
-      <c r="Q93" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="R93" s="66"/>
+      <c r="Q93" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="R93" s="48"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6257,11 +6487,12 @@
       <c r="J94" s="10">
         <v>-304374000</v>
       </c>
-      <c r="Q94" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="R94" s="38">
-        <v>4.095E-2</v>
+      <c r="Q94" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="R94" s="53">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7679999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6278,13 +6509,13 @@
         <v>-95000000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1">
         <v>-27000000</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-143000000</v>
@@ -6293,14 +6524,14 @@
         <v>-1924000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q95" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="R95" s="58" cm="1">
+        <v>91</v>
+      </c>
+      <c r="Q95" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="R95" s="55" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.7363</v>
+        <v>1.7415</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6308,36 +6539,36 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>78120000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q96" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="R96" s="38">
+        <v>91</v>
+      </c>
+      <c r="Q96" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="R96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6355,29 +6586,29 @@
         <v>-54284000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q97" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="R97" s="37">
+        <v>91</v>
+      </c>
+      <c r="Q97" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R97" s="52">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.11569771500000001</v>
+        <v>0.11834628000000003</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6385,36 +6616,36 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q98" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="R98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="R98" s="48"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6447,10 +6678,10 @@
       <c r="J99" s="1">
         <v>31992000</v>
       </c>
-      <c r="Q99" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="R99" s="25">
+      <c r="Q99" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="R99" s="50">
         <f>R86+R87</f>
         <v>260957000</v>
       </c>
@@ -6486,12 +6717,12 @@
       <c r="J100" s="10">
         <v>31992000</v>
       </c>
-      <c r="Q100" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="R100" s="35">
+      <c r="Q100" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="R100" s="52">
         <f>R99/R103</f>
-        <v>6.9027845728799773E-3</v>
+        <v>6.8522788688891749E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6499,38 +6730,38 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q101" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="R101" s="51" cm="1">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="R101" s="57" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>37543641600</v>
+        <v>37822285815</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6564,12 +6795,12 @@
       <c r="J102" s="10">
         <v>276352000</v>
       </c>
-      <c r="Q102" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="R102" s="35">
+      <c r="Q102" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="R102" s="52">
         <f>R101/R103</f>
-        <v>0.99309721542712004</v>
+        <v>0.99314772113111083</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6603,15 +6834,15 @@
       <c r="J103" s="1">
         <v>754154000</v>
       </c>
-      <c r="Q103" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="R103" s="39">
+      <c r="Q103" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="R103" s="58">
         <f>R99+R101</f>
-        <v>37804598600</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>38083242815</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -6642,268 +6873,309 @@
       <c r="J104" s="11">
         <v>1030506000</v>
       </c>
-      <c r="Q104" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="R104" s="66"/>
-    </row>
-    <row r="105" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q104" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="R104" s="48"/>
+    </row>
+    <row r="105" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:I105" si="20">(B22*(1-$R$91))+B77+B88+B81</f>
+        <v>-14806782.209311455</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>-49089319.777027555</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>52478705.346627936</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-26290595.430635154</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-23874363.939703226</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>-134616927.69097903</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>29968365.392164558</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>-129948047.14610976</v>
+      </c>
+      <c r="J105" s="1">
+        <f>(J22*(1-$R$91))+J77+J88+J81</f>
+        <v>-28309831.435973942</v>
+      </c>
+      <c r="K105" s="30">
+        <f>J105*(1+$R$106)</f>
+        <v>-34840134.028311245</v>
+      </c>
+      <c r="L105" s="30">
+        <f t="shared" ref="L105:O105" si="21">K105*(1+$R$106)</f>
+        <v>-42876798.537494779</v>
+      </c>
+      <c r="M105" s="30">
+        <f t="shared" si="21"/>
+        <v>-52767301.392440289</v>
+      </c>
+      <c r="N105" s="30">
+        <f t="shared" si="21"/>
+        <v>-64939272.315439954</v>
+      </c>
+      <c r="O105" s="30">
+        <f t="shared" si="21"/>
+        <v>-79918983.491223797</v>
+      </c>
+      <c r="P105" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q105" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="R105" s="60">
+        <f>(R100*R92)+(R102*R97)</f>
+        <v>0.11767571615343358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>1.6352563325657496</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>-2.5133258215098766</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-0.72405409512232177</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>2.3817180616740088</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>-0.68082785123428646</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:J105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
         <v>15.578490893321771</v>
       </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
         <v>-1.9741194934683293E-2</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
         <v>0.43419664720286311</v>
       </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="R105" s="27">
-        <f>(R100*R92)+(R102*R97)</f>
-        <v>0.11504049114006873</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-16502000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-43487000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>65810000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>18160000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>61412000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>19601000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>324955000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>318540000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>456849000</v>
-      </c>
-      <c r="K106" s="40">
-        <f>J106*(1+$R$106)</f>
-        <v>562231549.37172389</v>
-      </c>
-      <c r="L106" s="40">
-        <f t="shared" ref="L106:O106" si="9">K106*(1+$R$106)</f>
-        <v>691922966.03238535</v>
-      </c>
-      <c r="M106" s="40">
-        <f t="shared" si="9"/>
-        <v>851530639.74807143</v>
-      </c>
-      <c r="N106" s="40">
-        <f t="shared" si="9"/>
-        <v>1047955431.4949874</v>
-      </c>
-      <c r="O106" s="40">
-        <f t="shared" si="9"/>
-        <v>1289690041.8342609</v>
-      </c>
-      <c r="P106" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="R106" s="43">
+      <c r="K106" s="44">
+        <v>552000000</v>
+      </c>
+      <c r="L106" s="44">
+        <v>712000000</v>
+      </c>
+      <c r="M106" s="44">
+        <v>961100000</v>
+      </c>
+      <c r="N106" s="44">
+        <v>1209000000</v>
+      </c>
+      <c r="O106" s="44">
+        <v>1529000000</v>
+      </c>
+      <c r="P106" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q106" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="R106" s="62">
         <f>(SUM(K4:O4)/5)</f>
         <v>0.23067260598518083</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="44">
+      <c r="A107" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-16502000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-43487000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>65810000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>18160000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>61412000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>19601000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>324955000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>318540000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>456849000</v>
+      </c>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="45">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>14681531343.756155</v>
-      </c>
-      <c r="P107" s="45" t="s">
+        <v>16910848548.559448</v>
+      </c>
+      <c r="P107" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q107" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="R107" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K108" s="45">
+        <f t="shared" ref="K108:M108" si="22">K107+K106</f>
+        <v>552000000</v>
+      </c>
+      <c r="L108" s="45">
+        <f t="shared" si="22"/>
+        <v>712000000</v>
+      </c>
+      <c r="M108" s="45">
+        <f t="shared" si="22"/>
+        <v>961100000</v>
+      </c>
+      <c r="N108" s="45">
+        <f>N107+N106</f>
+        <v>1209000000</v>
+      </c>
+      <c r="O108" s="45">
+        <f>O107+O106</f>
+        <v>18439848548.559448</v>
+      </c>
+      <c r="P108" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q108" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="R108" s="62">
+        <f>R105</f>
+        <v>0.11767571615343358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K109" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="Q107" s="46" t="s">
+      <c r="L109" s="66"/>
+    </row>
+    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K110" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="R107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="44">
-        <f t="shared" ref="K108:M108" si="10">K107+K106</f>
-        <v>562231549.37172389</v>
-      </c>
-      <c r="L108" s="44">
-        <f t="shared" si="10"/>
-        <v>691922966.03238535</v>
-      </c>
-      <c r="M108" s="44">
-        <f t="shared" si="10"/>
-        <v>851530639.74807143</v>
-      </c>
-      <c r="N108" s="44">
-        <f>N107+N106</f>
-        <v>1047955431.4949874</v>
-      </c>
-      <c r="O108" s="44">
-        <f>O107+O106</f>
-        <v>15971221385.590416</v>
-      </c>
-      <c r="P108" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q108" s="48" t="s">
+      <c r="L110" s="57">
+        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
+        <v>13099482761.218058</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K111" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="R108" s="49">
-        <f>R105</f>
-        <v>0.11504049114006873</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="L109" s="62"/>
-    </row>
-    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="L110" s="51">
-        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>11618731779.93836</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="L111" s="51">
+      <c r="L111" s="57">
         <f>J40</f>
         <v>1446586000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="L112" s="51">
+      <c r="K112" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="L112" s="57">
         <f>R99</f>
         <v>260957000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="L113" s="51">
+      <c r="K113" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="L113" s="57">
         <f>L110+L111-L112</f>
-        <v>12804360779.93836</v>
+        <v>14285111761.218058</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="L114" s="52">
+      <c r="K114" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="L114" s="67">
         <f>J34*(1+(5*P16))</f>
         <v>564223217.81823242</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="53" t="s">
+      <c r="K115" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="L115" s="69">
+        <f>L113/L114</f>
+        <v>25.318192002903512</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K116" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="L116" s="70" cm="1">
+        <f t="array" ref="L116">_FV(A1,"Price")</f>
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K117" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="L117" s="71">
+        <f>L115/L116-1</f>
+        <v>-0.67276474081810123</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K118" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="L115" s="60">
-        <f>L113/L114</f>
-        <v>22.693785678389709</v>
-      </c>
-    </row>
-    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="L116" s="59" cm="1">
-        <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="L117" s="55">
-        <f>L115/L116-1</f>
-        <v>-0.70450799897930061</v>
-      </c>
-    </row>
-    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="L118" s="56" t="str">
+      <c r="L118" s="72" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6938,8 +7210,9 @@
     <hyperlink ref="J36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1671933/000167193323000007/0001671933-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1671933/000167193323000007/0001671933-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="K1" r:id="rId20" display="https://finbox.com/NASDAQGM:TTD/explorer/revenue_proj" xr:uid="{79192B40-4505-254C-9E93-E994E44228FB}"/>
+    <hyperlink ref="P106" r:id="rId21" xr:uid="{AE9B2538-B6DE-E04D-AE45-DE9916EFBF72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73FE3D-AF20-5D47-944A-0B2FFE4063AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF4442-72DB-6742-A802-EA2019E28CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -881,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,12 +931,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,19 +939,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -970,62 +964,63 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,10 +1110,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9048125409276956E-2"/>
-          <c:y val="0.13435961204321162"/>
-          <c:w val="0.8530021965884792"/>
-          <c:h val="0.72698738573851895"/>
+          <c:x val="9.7784223582547902E-2"/>
+          <c:y val="0.1769086748607944"/>
+          <c:w val="0.8342661496581405"/>
+          <c:h val="0.66316400465470526"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2103,15 +2098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>35279</xdr:colOff>
+      <xdr:colOff>19404</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>53623</xdr:rowOff>
+      <xdr:rowOff>21873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2146,9 +2141,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2157,19 +2150,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2180,22 +2177,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7679999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2941,10 +2928,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3080,19 +3067,19 @@
         <v>1577795000</v>
       </c>
       <c r="K3" s="25">
-        <v>1924000000</v>
+        <v>1925000000</v>
       </c>
       <c r="L3" s="25">
         <v>2373000000</v>
       </c>
       <c r="M3" s="25">
-        <v>2976000000</v>
+        <v>2953000000</v>
       </c>
       <c r="N3" s="25">
-        <v>3717000000</v>
+        <v>3528000000</v>
       </c>
       <c r="O3" s="25">
-        <v>4451000000</v>
+        <v>4144000000</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>107</v>
@@ -3112,57 +3099,57 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="67">
         <f>(C3/B3)-1</f>
         <v>1.5553560204722996</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>0.78261709828173864</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>0.51886401939623306</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:O4" si="0">(F3/E3)-1</f>
         <v>0.54856480985798961</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>0.38501217279077471</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.26468933134460215</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>0.43112413026758523</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.31871167361908026</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21942330911176677</v>
+        <v>0.22005710501047338</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23336798336798337</v>
+        <v>0.23272727272727267</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25410872313527189</v>
+        <v>0.24441635061104083</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.248991935483871</v>
+        <v>0.194717236708432</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19747107882701109</v>
+        <v>0.17460317460317465</v>
       </c>
       <c r="P4" s="17">
         <f>(J4+I4+H4)/3</f>
@@ -3701,15 +3688,15 @@
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.5723145599132812E-2</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="32">
         <f>R101/J3</f>
         <v>23.971609629261089</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="32">
         <f>R101/J28</f>
         <v>708.4815175611127</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="33">
         <f>R101/J107</f>
         <v>82.78946832542043</v>
       </c>
@@ -3821,34 +3808,34 @@
       <c r="J19" s="10">
         <v>194550000</v>
       </c>
-      <c r="K19" s="41">
-        <v>741000000</v>
-      </c>
-      <c r="L19" s="41">
+      <c r="K19" s="39">
+        <v>742000000</v>
+      </c>
+      <c r="L19" s="39">
         <v>950000000</v>
       </c>
-      <c r="M19" s="41">
-        <v>1270000000</v>
-      </c>
-      <c r="N19" s="41">
-        <v>1575000000</v>
-      </c>
-      <c r="O19" s="41">
-        <v>1936000000</v>
-      </c>
-      <c r="P19" s="29">
+      <c r="M19" s="39">
+        <v>1249000000</v>
+      </c>
+      <c r="N19" s="39">
+        <v>1497000000</v>
+      </c>
+      <c r="O19" s="39">
+        <v>1753000000</v>
+      </c>
+      <c r="P19" s="27">
         <f>J40-J56-J61</f>
         <v>1185629000</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="31">
         <f>R101/K3</f>
-        <v>19.65815271049896</v>
-      </c>
-      <c r="R19" s="34">
+        <v>19.647940683116882</v>
+      </c>
+      <c r="R19" s="32">
         <f>R101/K28</f>
         <v>61.023371757018396</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="33">
         <f>R101/K106</f>
         <v>68.518633722826081</v>
       </c>
@@ -3892,23 +3879,23 @@
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="4">(K19/J19)-1</f>
-        <v>2.8087895142636854</v>
+        <v>2.8139295810845542</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="5">(L19/K19)-1</f>
-        <v>0.28205128205128216</v>
+        <v>0.28032345013477089</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="6">(M19/L19)-1</f>
-        <v>0.33684210526315783</v>
+        <v>0.3147368421052632</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="7">(N19/M19)-1</f>
-        <v>0.24015748031496065</v>
+        <v>0.19855884707766203</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="8">(O19/N19)-1</f>
-        <v>0.22920634920634919</v>
+        <v>0.17100868403473624</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -3942,25 +3929,25 @@
       <c r="J21" s="2">
         <v>0.12330000000000001</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="40">
         <f>K19/K3</f>
-        <v>0.38513513513513514</v>
-      </c>
-      <c r="L21" s="42">
+        <v>0.38545454545454544</v>
+      </c>
+      <c r="L21" s="40">
         <f t="shared" ref="L21:O21" si="9">L19/L3</f>
         <v>0.40033712600084281</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="40">
         <f t="shared" si="9"/>
-        <v>0.426747311827957</v>
-      </c>
-      <c r="N21" s="42">
+        <v>0.42295970199796817</v>
+      </c>
+      <c r="N21" s="40">
         <f t="shared" si="9"/>
-        <v>0.42372881355932202</v>
-      </c>
-      <c r="O21" s="42">
+        <v>0.42431972789115646</v>
+      </c>
+      <c r="O21" s="40">
         <f t="shared" si="9"/>
-        <v>0.43495843630644798</v>
+        <v>0.42302123552123549</v>
       </c>
       <c r="R21" s="19" t="s">
         <v>160</v>
@@ -4000,11 +3987,11 @@
       <c r="J22" s="10">
         <v>113654000</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="34">
         <f>(-1*J98)/R101</f>
         <v>0</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="35">
         <f>J107/R101</f>
         <v>1.2078831042486003E-2</v>
       </c>
@@ -4200,20 +4187,20 @@
       <c r="J28" s="11">
         <v>53385000</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>619800000</v>
       </c>
-      <c r="L28" s="38">
-        <v>750600000</v>
-      </c>
-      <c r="M28" s="38">
-        <v>980300000</v>
-      </c>
-      <c r="N28" s="38">
-        <v>1470000000</v>
-      </c>
-      <c r="O28" s="38">
-        <v>1876000000</v>
+      <c r="L28" s="36">
+        <v>757000000</v>
+      </c>
+      <c r="M28" s="36">
+        <v>970000000</v>
+      </c>
+      <c r="N28" s="36">
+        <v>1179000000</v>
+      </c>
+      <c r="O28" s="36">
+        <v>1447000000</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4259,19 +4246,19 @@
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="12">(L28/K28)-1</f>
-        <v>0.21103581800580828</v>
+        <v>0.2213617295901904</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="13">(M28/L28)-1</f>
-        <v>0.30602184918731679</v>
+        <v>0.28137384412153232</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="14">(N28/M28)-1</f>
-        <v>0.49954095684994382</v>
+        <v>0.2154639175257731</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="15">(O28/N28)-1</f>
-        <v>0.2761904761904761</v>
+        <v>0.22731128074639528</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4305,25 +4292,25 @@
       <c r="J30" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="37">
         <f>K28/K3</f>
-        <v>0.32214137214137212</v>
-      </c>
-      <c r="L30" s="39">
+        <v>0.32197402597402597</v>
+      </c>
+      <c r="L30" s="37">
         <f t="shared" ref="L30:O30" si="16">L28/L3</f>
-        <v>0.31630847029077119</v>
-      </c>
-      <c r="M30" s="39">
+        <v>0.31900547829751369</v>
+      </c>
+      <c r="M30" s="37">
         <f t="shared" si="16"/>
-        <v>0.32940188172043011</v>
-      </c>
-      <c r="N30" s="39">
+        <v>0.32847951236031153</v>
+      </c>
+      <c r="N30" s="37">
         <f t="shared" si="16"/>
-        <v>0.39548022598870058</v>
-      </c>
-      <c r="O30" s="39">
+        <v>0.33418367346938777</v>
+      </c>
+      <c r="O30" s="37">
         <f t="shared" si="16"/>
-        <v>0.42147831947876879</v>
+        <v>0.34917953667953666</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4357,20 +4344,20 @@
       <c r="J31" s="12">
         <v>0.11</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="38">
         <v>1.27</v>
       </c>
-      <c r="L31" s="40">
-        <v>1.54</v>
-      </c>
-      <c r="M31" s="40">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="N31" s="40">
-        <v>3.01</v>
-      </c>
-      <c r="O31" s="40">
-        <v>3.84</v>
+      <c r="L31" s="38">
+        <v>1.55</v>
+      </c>
+      <c r="M31" s="38">
+        <v>1.98</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2.41</v>
+      </c>
+      <c r="O31" s="38">
+        <v>2.96</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6052,10 +6039,10 @@
       <c r="J83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q83" s="46" t="s">
+      <c r="Q83" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="R83" s="47"/>
+      <c r="R83" s="70"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6088,10 +6075,10 @@
       <c r="J84" s="1">
         <v>187119000</v>
       </c>
-      <c r="Q84" s="48" t="s">
+      <c r="Q84" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="R84" s="48"/>
+      <c r="R84" s="71"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6124,10 +6111,10 @@
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q85" s="49" t="s">
+      <c r="Q85" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="R85" s="50">
+      <c r="R85" s="45">
         <f>J17</f>
         <v>12755000</v>
       </c>
@@ -6163,10 +6150,10 @@
       <c r="J86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q86" s="49" t="s">
+      <c r="Q86" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="R86" s="50">
+      <c r="R86" s="45">
         <f>J56</f>
         <v>52430000</v>
       </c>
@@ -6202,10 +6189,10 @@
       <c r="J87" s="10">
         <v>548734000</v>
       </c>
-      <c r="Q87" s="49" t="s">
+      <c r="Q87" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="R87" s="50">
+      <c r="R87" s="45">
         <f>J61</f>
         <v>208527000</v>
       </c>
@@ -6241,10 +6228,10 @@
       <c r="J88" s="1">
         <v>-84160000</v>
       </c>
-      <c r="Q88" s="51" t="s">
+      <c r="Q88" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="R88" s="52">
+      <c r="R88" s="47">
         <f>R85/(R86+R87)</f>
         <v>4.8877784462574292E-2</v>
       </c>
@@ -6295,10 +6282,10 @@
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
-      <c r="Q89" s="49" t="s">
+      <c r="Q89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="R89" s="50">
+      <c r="R89" s="45">
         <f>J27</f>
         <v>73985000</v>
       </c>
@@ -6334,10 +6321,10 @@
       <c r="J90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q90" s="49" t="s">
+      <c r="Q90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="50">
+      <c r="R90" s="45">
         <f>J25</f>
         <v>127370000</v>
       </c>
@@ -6373,10 +6360,10 @@
       <c r="J91" s="1">
         <v>-553295000</v>
       </c>
-      <c r="Q91" s="51" t="s">
+      <c r="Q91" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="R91" s="52">
+      <c r="R91" s="47">
         <f>R89/R90</f>
         <v>0.58086676611446963</v>
       </c>
@@ -6412,10 +6399,10 @@
       <c r="J92" s="1">
         <v>340806000</v>
       </c>
-      <c r="Q92" s="51" t="s">
+      <c r="Q92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="R92" s="52">
+      <c r="R92" s="47">
         <f>R88*(1-R91)</f>
         <v>2.0486303866958693E-2</v>
       </c>
@@ -6451,10 +6438,10 @@
       <c r="J93" s="1">
         <v>-7725000</v>
       </c>
-      <c r="Q93" s="48" t="s">
+      <c r="Q93" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="R93" s="48"/>
+      <c r="R93" s="71"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6487,12 +6474,12 @@
       <c r="J94" s="10">
         <v>-304374000</v>
       </c>
-      <c r="Q94" s="49" t="s">
+      <c r="Q94" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="R94" s="53">
+      <c r="R94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7679999999999998E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6526,10 +6513,10 @@
       <c r="J95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q95" s="54" t="s">
+      <c r="Q95" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="R95" s="55" cm="1">
+      <c r="R95" s="50" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
         <v>1.7415</v>
       </c>
@@ -6565,10 +6552,10 @@
       <c r="J96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q96" s="49" t="s">
+      <c r="Q96" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="R96" s="56">
+      <c r="R96" s="51">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6603,12 +6590,12 @@
       <c r="J97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q97" s="51" t="s">
+      <c r="Q97" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="R97" s="52">
+      <c r="R97" s="47">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.11834628000000003</v>
+        <v>0.11727852000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6642,10 +6629,10 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="48" t="s">
+      <c r="Q98" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="R98" s="48"/>
+      <c r="R98" s="71"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6678,10 +6665,10 @@
       <c r="J99" s="1">
         <v>31992000</v>
       </c>
-      <c r="Q99" s="49" t="s">
+      <c r="Q99" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="R99" s="50">
+      <c r="R99" s="45">
         <f>R86+R87</f>
         <v>260957000</v>
       </c>
@@ -6717,10 +6704,10 @@
       <c r="J100" s="10">
         <v>31992000</v>
       </c>
-      <c r="Q100" s="51" t="s">
+      <c r="Q100" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="R100" s="52">
+      <c r="R100" s="47">
         <f>R99/R103</f>
         <v>6.8522788688891749E-3</v>
       </c>
@@ -6756,10 +6743,10 @@
       <c r="J101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q101" s="54" t="s">
+      <c r="Q101" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="R101" s="57" cm="1">
+      <c r="R101" s="52" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
         <v>37822285815</v>
       </c>
@@ -6795,10 +6782,10 @@
       <c r="J102" s="10">
         <v>276352000</v>
       </c>
-      <c r="Q102" s="51" t="s">
+      <c r="Q102" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="R102" s="52">
+      <c r="R102" s="47">
         <f>R101/R103</f>
         <v>0.99314772113111083</v>
       </c>
@@ -6834,10 +6821,10 @@
       <c r="J103" s="1">
         <v>754154000</v>
       </c>
-      <c r="Q103" s="51" t="s">
+      <c r="Q103" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="R103" s="58">
+      <c r="R103" s="53">
         <f>R99+R101</f>
         <v>38083242815</v>
       </c>
@@ -6873,10 +6860,10 @@
       <c r="J104" s="11">
         <v>1030506000</v>
       </c>
-      <c r="Q104" s="48" t="s">
+      <c r="Q104" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="R104" s="48"/>
+      <c r="R104" s="71"/>
     </row>
     <row r="105" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6918,35 +6905,35 @@
         <f>(J22*(1-$R$91))+J77+J88+J81</f>
         <v>-28309831.435973942</v>
       </c>
-      <c r="K105" s="30">
+      <c r="K105" s="28">
         <f>J105*(1+$R$106)</f>
-        <v>-34840134.028311245</v>
-      </c>
-      <c r="L105" s="30">
+        <v>-34348438.173311658</v>
+      </c>
+      <c r="L105" s="28">
         <f t="shared" ref="L105:O105" si="21">K105*(1+$R$106)</f>
-        <v>-42876798.537494779</v>
-      </c>
-      <c r="M105" s="30">
+        <v>-41675105.258542642</v>
+      </c>
+      <c r="M105" s="28">
         <f t="shared" si="21"/>
-        <v>-52767301.392440289</v>
-      </c>
-      <c r="N105" s="30">
+        <v>-50564581.409704193</v>
+      </c>
+      <c r="N105" s="28">
         <f t="shared" si="21"/>
-        <v>-64939272.315439954</v>
-      </c>
-      <c r="O105" s="30">
+        <v>-61350220.408009887</v>
+      </c>
+      <c r="O105" s="28">
         <f t="shared" si="21"/>
-        <v>-79918983.491223797</v>
-      </c>
-      <c r="P105" s="31" t="s">
+        <v>-74436481.805603296</v>
+      </c>
+      <c r="P105" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="Q105" s="59" t="s">
+      <c r="Q105" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="R105" s="60">
+      <c r="R105" s="55">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>0.11767571615343358</v>
+        <v>0.11661527274271861</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6955,65 +6942,65 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:J106" si="22">(C107/B107)-1</f>
         <v>1.6352563325657496</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.5133258215098766</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.72405409512232177</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.3817180616740088</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.68082785123428646</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>15.578490893321771</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.9741194934683293E-2</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.43419664720286311</v>
       </c>
-      <c r="K106" s="44">
+      <c r="K106" s="42">
         <v>552000000</v>
       </c>
-      <c r="L106" s="44">
+      <c r="L106" s="42">
         <v>712000000</v>
       </c>
-      <c r="M106" s="44">
-        <v>961100000</v>
-      </c>
-      <c r="N106" s="44">
-        <v>1209000000</v>
-      </c>
-      <c r="O106" s="44">
-        <v>1529000000</v>
-      </c>
-      <c r="P106" s="31" t="s">
+      <c r="M106" s="42">
+        <v>952000000</v>
+      </c>
+      <c r="N106" s="42">
+        <v>1132000000</v>
+      </c>
+      <c r="O106" s="42">
+        <v>1332000000</v>
+      </c>
+      <c r="P106" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="Q106" s="61" t="s">
+      <c r="Q106" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="R106" s="62">
+      <c r="R106" s="57">
         <f>(SUM(K4:O4)/5)</f>
-        <v>0.23067260598518083</v>
+        <v>0.2133042279320787</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="41" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1">
@@ -7043,139 +7030,139 @@
       <c r="J107" s="1">
         <v>456849000</v>
       </c>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="45">
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="43">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>16910848548.559448</v>
-      </c>
-      <c r="P107" s="32" t="s">
+        <v>14902537089.357857</v>
+      </c>
+      <c r="P107" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="Q107" s="63" t="s">
+      <c r="Q107" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="R107" s="64">
+      <c r="R107" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="45">
-        <f t="shared" ref="K108:M108" si="22">K107+K106</f>
+      <c r="K108" s="43">
+        <f t="shared" ref="K108:M108" si="23">K107+K106</f>
         <v>552000000</v>
       </c>
-      <c r="L108" s="45">
-        <f t="shared" si="22"/>
+      <c r="L108" s="43">
+        <f t="shared" si="23"/>
         <v>712000000</v>
       </c>
-      <c r="M108" s="45">
-        <f t="shared" si="22"/>
-        <v>961100000</v>
-      </c>
-      <c r="N108" s="45">
+      <c r="M108" s="43">
+        <f t="shared" si="23"/>
+        <v>952000000</v>
+      </c>
+      <c r="N108" s="43">
         <f>N107+N106</f>
-        <v>1209000000</v>
-      </c>
-      <c r="O108" s="45">
+        <v>1132000000</v>
+      </c>
+      <c r="O108" s="43">
         <f>O107+O106</f>
-        <v>18439848548.559448</v>
-      </c>
-      <c r="P108" s="32" t="s">
+        <v>16234537089.357857</v>
+      </c>
+      <c r="P108" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="Q108" s="65" t="s">
+      <c r="Q108" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="R108" s="62">
+      <c r="R108" s="57">
         <f>R105</f>
-        <v>0.11767571615343358</v>
+        <v>0.11661527274271861</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="66" t="s">
+      <c r="K109" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="L109" s="66"/>
+      <c r="L109" s="68"/>
     </row>
     <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="67" t="s">
+      <c r="K110" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="L110" s="57">
+      <c r="L110" s="52">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>13099482761.218058</v>
+        <v>11829742798.329315</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="67" t="s">
+      <c r="K111" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="L111" s="57">
+      <c r="L111" s="52">
         <f>J40</f>
         <v>1446586000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="67" t="s">
+      <c r="K112" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="L112" s="57">
+      <c r="L112" s="52">
         <f>R99</f>
         <v>260957000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="67" t="s">
+      <c r="K113" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="L113" s="57">
+      <c r="L113" s="52">
         <f>L110+L111-L112</f>
-        <v>14285111761.218058</v>
+        <v>13015371798.329315</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="67" t="s">
+      <c r="K114" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="L114" s="67">
+      <c r="L114" s="61">
         <f>J34*(1+(5*P16))</f>
         <v>564223217.81823242</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="68" t="s">
+      <c r="K115" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="L115" s="69">
+      <c r="L115" s="63">
         <f>L113/L114</f>
-        <v>25.318192002903512</v>
+        <v>23.06777067533277</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="67" t="s">
+      <c r="K116" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="L116" s="70" cm="1">
+      <c r="L116" s="64" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
         <v>77.37</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="68" t="s">
+      <c r="K117" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="L117" s="71">
+      <c r="L117" s="65">
         <f>L115/L116-1</f>
-        <v>-0.67276474081810123</v>
+        <v>-0.70185122559993829</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="68" t="s">
+      <c r="K118" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="L118" s="72" t="str">
+      <c r="L118" s="66" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C61662-0D8C-4B4D-9C3F-10453BC8FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87DB7B6-5402-C347-A365-BD094A09F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1760,6 +1760,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1777,7 +1778,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1789,6 +1790,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1915,12 +1917,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>91.85</v>
-    <v>39.43</v>
-    <v>1.6765000000000001</v>
-    <v>-2.0299999999999998</v>
-    <v>-2.5748000000000004E-2</v>
-    <v>-21.58</v>
-    <v>-0.28095300000000001</v>
+    <v>41.2</v>
+    <v>1.552</v>
+    <v>1.1399999999999999</v>
+    <v>1.6178999999999999E-2</v>
+    <v>-0.86</v>
+    <v>-1.2011000000000001E-2</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -1928,25 +1930,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>80.38</v>
+    <v>71.91</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.041644108591</v>
+    <v>45262.040771527347</v>
     <v>0</v>
-    <v>76.47</v>
-    <v>37652139104</v>
+    <v>69.2</v>
+    <v>35105270000</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>79.7</v>
-    <v>265.00839999999999</v>
-    <v>78.84</v>
-    <v>76.81</v>
-    <v>55.23</v>
-    <v>490198400</v>
+    <v>70.14</v>
+    <v>238.1129</v>
+    <v>70.459999999999994</v>
+    <v>71.599999999999994</v>
+    <v>70.739999999999995</v>
+    <v>490297000</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>12310145</v>
-    <v>3973020</v>
+    <v>5422712</v>
+    <v>6852389</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2111,9 +2113,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -11725,7 +11727,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11774,7 +11776,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>37652139104</v>
+        <v>35105270000</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>197</v>
@@ -11802,7 +11804,7 @@
       </c>
       <c r="I3" s="45">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>23552777772.206841</v>
+        <v>23313747597.986595</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>201</v>
@@ -11847,21 +11849,21 @@
       </c>
       <c r="G4" s="54">
         <f>A5*(1+(5*G3))</f>
-        <v>545409493.51770055</v>
+        <v>545519198.84530032</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>207</v>
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>18614985816.507797</v>
+        <v>18406752303.338943</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>208</v>
       </c>
       <c r="K4" s="56" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.5748000000000004E-2</v>
+        <v>1.6178999999999999E-2</v>
       </c>
       <c r="L4" s="57" t="s">
         <v>209</v>
@@ -11878,7 +11880,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>490198400</v>
+        <v>490297000</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>211</v>
@@ -11906,14 +11908,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>19793061816.507797</v>
+        <v>19584828303.338943</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>76.81</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>216</v>
@@ -11933,7 +11935,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>19.3683843127572</v>
+        <v>18.058266460905351</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>218</v>
@@ -11961,14 +11963,14 @@
       </c>
       <c r="I6" s="56">
         <f>N25</f>
-        <v>9.6197546897368716E-2</v>
+        <v>9.6927517999929755E-2</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>36.290277400287749</v>
+        <v>35.901263135732201</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>222</v>
@@ -11988,14 +11990,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>60.436820391653292</v>
+        <v>56.348747993579451</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>1.5483848032901393E-2</v>
+        <v>1.6607193165014824E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>225</v>
@@ -12022,7 +12024,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-0.52753186563874821</v>
+        <v>-0.4985857103948016</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>228</v>
@@ -12349,7 +12351,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -12501,7 +12503,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -12584,7 +12586,7 @@
       </c>
       <c r="O20" s="109">
         <f>A3</f>
-        <v>37652139104</v>
+        <v>35105270000</v>
       </c>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -12614,7 +12616,7 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>37905007104</v>
+        <v>35358138000</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -12642,7 +12644,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>6.6710975493608493E-3</v>
+        <v>7.1516209366002245E-3</v>
       </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -12667,7 +12669,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.9933289024506391</v>
+        <v>0.99284837906339973</v>
       </c>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -12711,7 +12713,7 @@
       <c r="M25" s="77"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6197546897368716E-2</v>
+        <v>9.6927517999929755E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="49"/>

--- a/Technology/Software/The Trade Desk.xlsx
+++ b/Technology/Software/The Trade Desk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87DB7B6-5402-C347-A365-BD094A09F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F755F676-8759-3A42-AD08-B1250C41CA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1685,6 +1685,9 @@
     <xf numFmtId="10" fontId="20" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1719,9 +1722,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1759,6 +1759,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1778,7 +1780,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1791,6 +1793,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1918,11 +1922,11 @@
     <v>Powered by Refinitiv</v>
     <v>91.85</v>
     <v>41.2</v>
-    <v>1.552</v>
-    <v>1.1399999999999999</v>
-    <v>1.6178999999999999E-2</v>
-    <v>-0.86</v>
-    <v>-1.2011000000000001E-2</v>
+    <v>1.554</v>
+    <v>1.85</v>
+    <v>2.6897000000000001E-2</v>
+    <v>0.17</v>
+    <v>2.4069999999999999E-3</v>
     <v>USD</v>
     <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
     <v>2770</v>
@@ -1930,25 +1934,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
-    <v>71.91</v>
+    <v>70.72</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.040771527347</v>
+    <v>45269.041503425782</v>
     <v>0</v>
-    <v>69.2</v>
-    <v>35105270000</v>
+    <v>68.02</v>
+    <v>34629677110</v>
     <v>THE TRADE DESK, INC.</v>
     <v>THE TRADE DESK, INC.</v>
-    <v>70.14</v>
-    <v>238.1129</v>
-    <v>70.459999999999994</v>
-    <v>71.599999999999994</v>
-    <v>70.739999999999995</v>
+    <v>68.180000000000007</v>
+    <v>232.43549999999999</v>
+    <v>68.78</v>
+    <v>70.63</v>
+    <v>70.8</v>
     <v>490297000</v>
     <v>TTD</v>
     <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
-    <v>5422712</v>
-    <v>6852389</v>
+    <v>4209334</v>
+    <v>6775983</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -11735,48 +11739,48 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="e" vm="1">
+    <row r="1" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-    </row>
-    <row r="2" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+    </row>
+    <row r="2" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>35105270000</v>
+        <v>34629677110</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>197</v>
@@ -11804,7 +11808,7 @@
       </c>
       <c r="I3" s="45">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>23313747597.986595</v>
+        <v>23158592046.168884</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>201</v>
@@ -11817,10 +11821,10 @@
         <v>202</v>
       </c>
       <c r="M3" s="49"/>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="121"/>
+      <c r="O3" s="122"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
@@ -11856,23 +11860,23 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>18406752303.338943</v>
+        <v>18271616578.968399</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>208</v>
       </c>
       <c r="K4" s="56" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6178999999999999E-2</v>
+        <v>2.6897000000000001E-2</v>
       </c>
       <c r="L4" s="57" t="s">
         <v>209</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="124"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
@@ -11908,14 +11912,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>19584828303.338943</v>
+        <v>19449692578.968399</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>71.599999999999994</v>
+        <v>70.63</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>216</v>
@@ -11935,7 +11939,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>18.058266460905351</v>
+        <v>17.813619912551442</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>218</v>
@@ -11963,14 +11967,14 @@
       </c>
       <c r="I6" s="56">
         <f>N25</f>
-        <v>9.6927517999929755E-2</v>
+        <v>9.74094105832055E-2</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>35.901263135732201</v>
+        <v>35.653543670209103</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>222</v>
@@ -11990,14 +11994,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>56.348747993579451</v>
+        <v>55.585356516853935</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>1.6607193165014824E-2</v>
+        <v>1.6835271034959992E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>225</v>
@@ -12024,7 +12028,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-0.4985857103948016</v>
+        <v>-0.49520680064832079</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>228</v>
@@ -12295,16 +12299,16 @@
       </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
-      <c r="N13" s="122" t="s">
+      <c r="N13" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="123"/>
+      <c r="O13" s="124"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="113" t="s">
         <v>238</v>
       </c>
       <c r="B14" s="97">
@@ -12351,7 +12355,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -12456,7 +12460,7 @@
       <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="113" t="s">
         <v>196</v>
       </c>
       <c r="B17" s="97">
@@ -12503,7 +12507,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -12533,10 +12537,10 @@
       <c r="K18" s="108"/>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
-      <c r="N18" s="122" t="s">
+      <c r="N18" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="123"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
@@ -12586,24 +12590,24 @@
       </c>
       <c r="O20" s="109">
         <f>A3</f>
-        <v>35105270000</v>
+        <v>34629677110</v>
       </c>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="str" cm="1">
+      <c r="A21" s="114" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="124" cm="1">
+      <c r="B21" s="114"/>
+      <c r="C21" s="125" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2009</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
@@ -12616,21 +12620,21 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>35358138000</v>
+        <v>34882545110</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="str" cm="1">
+      <c r="A22" s="114" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -12644,18 +12648,18 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>7.1516209366002245E-3</v>
+        <v>7.2491270118793232E-3</v>
       </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -12669,18 +12673,18 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.99284837906339973</v>
+        <v>0.9927508729881207</v>
       </c>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -12689,20 +12693,20 @@
       <c r="K24" s="77"/>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -12711,21 +12715,21 @@
       <c r="K25" s="77"/>
       <c r="L25" s="77"/>
       <c r="M25" s="77"/>
-      <c r="N25" s="116">
+      <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6927517999929755E-2</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>9.74094105832055E-2</v>
+      </c>
+      <c r="O25" s="118"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
@@ -12741,11 +12745,11 @@
       <c r="R26" s="49"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
@@ -12761,11 +12765,11 @@
       <c r="R27" s="49"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
@@ -12781,11 +12785,11 @@
       <c r="R28" s="49"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -12801,11 +12805,11 @@
       <c r="R29" s="49"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
